--- a/data/trans_orig/P42A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55466B3E-EAA6-4644-9932-1B7E8D926ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E93393D6-E870-4485-82F9-703C8554EA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0E9BE1-EA5B-40E8-A6F7-51B966B258F7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2165F9F7-43F2-483B-A425-DE2AA7754528}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="365">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>23,49%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -95,7 +95,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,15%</t>
+    <t>15,29%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -104,10 +104,10 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -116,10 +116,10 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -128,10 +128,10 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,34 +143,34 @@
     <t>20,8%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>16,67%</t>
+    <t>17,04%</t>
   </si>
   <si>
     <t>29,73%</t>
@@ -179,952 +179,934 @@
     <t>11,38%</t>
   </si>
   <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
   </si>
   <si>
     <t>34,64%</t>
@@ -1563,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB2E20-4ECD-48FA-ACB9-C2A401EE4389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB512CF-08B5-423A-9251-8D7A2C5F768F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2643,7 +2625,7 @@
         <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2658,7 +2640,7 @@
         <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2668,13 @@
         <v>54870</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -2701,13 +2683,13 @@
         <v>54870</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2717,13 @@
         <v>41837</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2750,13 +2732,13 @@
         <v>41837</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2766,13 @@
         <v>32728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2799,13 +2781,13 @@
         <v>32728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2841,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2884,13 +2866,13 @@
         <v>83284</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -2899,13 +2881,13 @@
         <v>83284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2915,13 @@
         <v>65359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -2948,13 +2930,13 @@
         <v>65359</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2964,13 @@
         <v>78417</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -2997,13 +2979,13 @@
         <v>78417</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3013,13 @@
         <v>52478</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -3046,13 +3028,13 @@
         <v>52478</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3062,13 @@
         <v>72129</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -3095,13 +3077,13 @@
         <v>72129</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3162,13 @@
         <v>243533</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M34" s="7">
         <v>235</v>
@@ -3195,13 +3177,13 @@
         <v>243533</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3211,13 @@
         <v>204651</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M35" s="7">
         <v>198</v>
@@ -3244,13 +3226,13 @@
         <v>204651</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3260,13 @@
         <v>252904</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="M36" s="7">
         <v>248</v>
@@ -3293,13 +3275,13 @@
         <v>252904</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D20E852-A7D2-482B-8F9C-AB6460867885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF486C95-E0C8-48D2-A863-55519167A780}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4696,10 +4678,10 @@
         <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -4711,10 +4693,10 @@
         <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,7 +4750,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5144,7 +5126,7 @@
         <v>188</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
         <v>626</v>
@@ -5159,7 +5141,7 @@
         <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5169,13 @@
         <v>913943</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M36" s="7">
         <v>842</v>
@@ -5202,13 +5184,13 @@
         <v>913943</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,10 +5218,10 @@
         <v>658107</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>194</v>
@@ -5251,10 +5233,10 @@
         <v>658107</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>194</v>
@@ -5381,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935443CD-B33C-447A-BFDF-34AB6EA142EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E9ABC-2F49-4428-9C1F-BA7FB2E16F1C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5964,10 +5946,10 @@
         <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5979,10 +5961,10 @@
         <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5992,13 @@
         <v>67626</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -6025,13 +6007,13 @@
         <v>67626</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6092,13 @@
         <v>56314</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6125,13 +6107,13 @@
         <v>56314</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6141,13 @@
         <v>244430</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -6174,13 +6156,13 @@
         <v>244430</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6190,13 @@
         <v>326921</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -6223,13 +6205,13 @@
         <v>326921</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6239,13 @@
         <v>169279</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -6272,13 +6254,13 @@
         <v>169279</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6288,13 @@
         <v>114664</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -6321,13 +6303,13 @@
         <v>114664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6388,13 @@
         <v>66569</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6421,13 +6403,13 @@
         <v>66569</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6437,13 @@
         <v>118948</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -6470,13 +6452,13 @@
         <v>118948</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6486,13 @@
         <v>274793</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M24" s="7">
         <v>260</v>
@@ -6519,13 +6501,13 @@
         <v>274793</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,10 +6538,10 @@
         <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -6571,10 +6553,10 @@
         <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6584,13 @@
         <v>74479</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M26" s="7">
         <v>71</v>
@@ -6617,13 +6599,13 @@
         <v>74479</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,7 +6659,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6702,13 +6684,13 @@
         <v>76995</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6717,13 +6699,13 @@
         <v>76995</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6733,13 @@
         <v>232937</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M29" s="7">
         <v>206</v>
@@ -6766,13 +6748,13 @@
         <v>232937</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6782,13 @@
         <v>311591</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M30" s="7">
         <v>294</v>
@@ -6815,13 +6797,13 @@
         <v>311591</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,13 +6831,13 @@
         <v>179812</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>169</v>
@@ -6864,13 +6846,13 @@
         <v>179812</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6880,13 @@
         <v>120550</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -6913,13 +6895,13 @@
         <v>120550</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6980,13 @@
         <v>251902</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M34" s="7">
         <v>225</v>
@@ -7013,13 +6995,13 @@
         <v>251902</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7029,13 @@
         <v>745486</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M35" s="7">
         <v>669</v>
@@ -7062,13 +7044,13 @@
         <v>745486</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7078,13 @@
         <v>1106691</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M36" s="7">
         <v>1061</v>
@@ -7111,13 +7093,13 @@
         <v>1106691</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7127,13 @@
         <v>563675</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M37" s="7">
         <v>545</v>
@@ -7160,13 +7142,13 @@
         <v>563675</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7176,13 @@
         <v>393781</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M38" s="7">
         <v>377</v>
@@ -7209,13 +7191,13 @@
         <v>393781</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F231C7-E5F6-42F8-ADEB-66488543E0F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174D82A-257A-4C28-B81B-3F4609F3275A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7307,7 +7289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7427,13 +7409,13 @@
         <v>5003</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -7442,13 +7424,13 @@
         <v>5003</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7458,13 @@
         <v>34803</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -7491,13 +7473,13 @@
         <v>34803</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7507,13 @@
         <v>13990</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -7540,13 +7522,13 @@
         <v>13990</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7556,13 @@
         <v>9476</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -7589,13 +7571,13 @@
         <v>9476</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7605,13 @@
         <v>11355</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -7638,13 +7620,13 @@
         <v>11355</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7705,13 @@
         <v>45926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -7738,13 +7720,13 @@
         <v>45926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7754,13 @@
         <v>112543</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -7787,13 +7769,13 @@
         <v>112543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7803,13 @@
         <v>112450</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>190</v>
@@ -7836,13 +7818,13 @@
         <v>112450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>216</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7852,13 @@
         <v>58196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -7885,13 +7867,13 @@
         <v>58196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7901,13 @@
         <v>33706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -7934,13 +7916,13 @@
         <v>33706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,13 +8001,13 @@
         <v>79062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -8034,13 +8016,13 @@
         <v>79062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8050,13 @@
         <v>188377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>315</v>
@@ -8083,13 +8065,13 @@
         <v>188377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,13 +8099,13 @@
         <v>203203</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>305</v>
@@ -8132,13 +8114,13 @@
         <v>203203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8148,13 @@
         <v>143468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -8181,13 +8163,13 @@
         <v>143468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8197,13 @@
         <v>68429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -8230,13 +8212,13 @@
         <v>68429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8297,13 @@
         <v>42218</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -8330,13 +8312,13 @@
         <v>42218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8346,13 @@
         <v>171305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>242</v>
@@ -8379,13 +8361,13 @@
         <v>171305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,13 +8395,13 @@
         <v>129857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -8428,13 +8410,13 @@
         <v>129857</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,13 +8444,13 @@
         <v>76051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -8477,13 +8459,13 @@
         <v>76051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8493,13 @@
         <v>64271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>88</v>
@@ -8526,13 +8508,13 @@
         <v>64271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8586,7 +8568,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8611,13 +8593,13 @@
         <v>40365</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -8626,13 +8608,13 @@
         <v>40365</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8660,13 +8642,13 @@
         <v>250963</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>377</v>
@@ -8675,13 +8657,13 @@
         <v>250963</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,13 +8691,13 @@
         <v>173719</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M30" s="7">
         <v>236</v>
@@ -8724,13 +8706,13 @@
         <v>173719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,13 +8740,13 @@
         <v>152733</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M31" s="7">
         <v>203</v>
@@ -8773,13 +8755,13 @@
         <v>152733</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,13 +8789,13 @@
         <v>105707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M32" s="7">
         <v>138</v>
@@ -8822,13 +8804,13 @@
         <v>105707</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8907,13 +8889,13 @@
         <v>212574</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M34" s="7">
         <v>320</v>
@@ -8922,13 +8904,13 @@
         <v>212574</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,13 +8938,13 @@
         <v>757991</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M35" s="7">
         <v>1231</v>
@@ -8971,13 +8953,13 @@
         <v>757991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9005,13 +8987,13 @@
         <v>633219</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M36" s="7">
         <v>933</v>
@@ -9020,13 +9002,13 @@
         <v>633219</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9054,10 +9036,10 @@
         <v>439924</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>52</v>
@@ -9069,10 +9051,10 @@
         <v>439924</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -9103,13 +9085,13 @@
         <v>283468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M38" s="7">
         <v>389</v>
@@ -9118,13 +9100,13 @@
         <v>283468</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E93393D6-E870-4485-82F9-703C8554EA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E563DD-7D8E-4F23-ACEB-99FE6AC5B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2165F9F7-43F2-483B-A425-DE2AA7754528}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5923DA03-849A-47BB-9C67-88E0E2A16842}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="361">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca ha ido por motivos diferentes al embarazo o parto</t>
@@ -80,1060 +80,1048 @@
     <t>23,49%</t>
   </si>
   <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>Hace 3 o más años</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>Hace 3 o más años</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>10,16%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>13,48%</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB512CF-08B5-423A-9251-8D7A2C5F768F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEEEEB8-82AB-4139-98E5-4AD0045890C7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -1999,7 +1987,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2015,13 @@
         <v>29705</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -2042,13 +2030,13 @@
         <v>29705</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2064,13 @@
         <v>44938</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -2091,13 +2079,13 @@
         <v>44938</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2113,13 @@
         <v>37679</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2140,13 +2128,13 @@
         <v>37679</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2162,13 @@
         <v>18842</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2189,13 +2177,13 @@
         <v>18842</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2237,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2262,13 @@
         <v>68172</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2289,13 +2277,13 @@
         <v>68172</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2311,13 @@
         <v>64523</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -2338,13 +2326,13 @@
         <v>64523</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2360,13 @@
         <v>67693</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -2387,13 +2375,13 @@
         <v>67693</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2409,13 @@
         <v>67489</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2436,13 +2424,13 @@
         <v>67489</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2458,13 @@
         <v>47792</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -2485,13 +2473,13 @@
         <v>47792</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2533,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2570,13 +2558,13 @@
         <v>49720</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -2585,13 +2573,13 @@
         <v>49720</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2607,13 @@
         <v>43365</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2634,13 +2622,13 @@
         <v>43365</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2656,13 @@
         <v>54870</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -2683,13 +2671,13 @@
         <v>54870</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2705,13 @@
         <v>41837</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2732,13 +2720,13 @@
         <v>41837</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2754,13 @@
         <v>32728</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2781,13 +2769,13 @@
         <v>32728</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2829,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2866,13 +2854,13 @@
         <v>83284</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>79</v>
@@ -2881,13 +2869,13 @@
         <v>83284</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2903,13 @@
         <v>65359</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -2930,13 +2918,13 @@
         <v>65359</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2952,13 @@
         <v>78417</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -2979,13 +2967,13 @@
         <v>78417</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3254,7 @@
         <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="M36" s="7">
         <v>248</v>
@@ -3281,7 +3269,7 @@
         <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,10 +3297,10 @@
         <v>213973</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>105</v>
@@ -3324,10 +3312,10 @@
         <v>213973</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>105</v>
@@ -3454,7 +3442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF486C95-E0C8-48D2-A863-55519167A780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C95DB-296B-4E82-9DE3-6DA871F69226}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3985,13 +3973,13 @@
         <v>136333</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -4000,13 +3988,13 @@
         <v>136333</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4022,13 @@
         <v>105467</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -4049,13 +4037,13 @@
         <v>105467</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4071,13 @@
         <v>65354</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4098,13 +4086,13 @@
         <v>65354</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4146,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4183,13 +4171,13 @@
         <v>89969</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4198,13 +4186,13 @@
         <v>89969</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4220,13 @@
         <v>179425</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -4247,13 +4235,13 @@
         <v>179425</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4269,13 @@
         <v>257403</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>236</v>
@@ -4296,13 +4284,13 @@
         <v>257403</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4318,13 @@
         <v>182209</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -4345,13 +4333,13 @@
         <v>182209</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4367,13 @@
         <v>160877</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4394,13 +4382,13 @@
         <v>160877</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,7 +4442,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4479,13 +4467,13 @@
         <v>53703</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -4494,13 +4482,13 @@
         <v>53703</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4516,13 @@
         <v>151820</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>138</v>
@@ -4543,13 +4531,13 @@
         <v>151820</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4565,13 @@
         <v>194926</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -4592,13 +4580,13 @@
         <v>194926</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4614,13 @@
         <v>162454</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -4641,13 +4629,13 @@
         <v>162454</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4663,13 @@
         <v>132566</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -4690,13 +4678,13 @@
         <v>132566</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4738,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4775,13 +4763,13 @@
         <v>112983</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4790,13 +4778,13 @@
         <v>112983</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4812,13 @@
         <v>191263</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -4839,13 +4827,13 @@
         <v>191263</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4861,13 @@
         <v>297448</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>281</v>
@@ -4888,13 +4876,13 @@
         <v>297448</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4910,13 @@
         <v>189382</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>179</v>
@@ -4937,13 +4925,13 @@
         <v>189382</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4959,13 @@
         <v>131416</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>123</v>
@@ -4986,13 +4974,13 @@
         <v>131416</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5059,13 @@
         <v>330198</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>311</v>
@@ -5086,13 +5074,13 @@
         <v>330198</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5108,13 @@
         <v>676078</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="M35" s="7">
         <v>626</v>
@@ -5135,13 +5123,13 @@
         <v>676078</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5157,13 @@
         <v>913943</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="M36" s="7">
         <v>842</v>
@@ -5184,13 +5172,13 @@
         <v>913943</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5206,13 @@
         <v>658107</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M37" s="7">
         <v>603</v>
@@ -5233,13 +5221,13 @@
         <v>658107</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5255,13 @@
         <v>503832</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
         <v>464</v>
@@ -5282,13 +5270,13 @@
         <v>503832</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E9ABC-2F49-4428-9C1F-BA7FB2E16F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541EF9A-ACA1-4438-88DA-38EDA03AA5D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5500,13 +5488,13 @@
         <v>8893</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5515,13 +5503,13 @@
         <v>8893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5537,13 @@
         <v>24761</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5564,13 +5552,13 @@
         <v>24761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5586,13 @@
         <v>33544</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -5613,13 +5601,13 @@
         <v>33544</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5635,13 @@
         <v>10936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5662,13 +5650,13 @@
         <v>10936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5684,13 @@
         <v>16461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5711,13 +5699,13 @@
         <v>16461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5784,13 @@
         <v>43131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5811,13 +5799,13 @@
         <v>43131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5833,13 @@
         <v>124411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -5860,13 +5848,13 @@
         <v>124411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5882,13 @@
         <v>159843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -5909,13 +5897,13 @@
         <v>159843</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5931,13 @@
         <v>63798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5958,13 +5946,13 @@
         <v>63798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5980,13 @@
         <v>67626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -6007,13 +5995,13 @@
         <v>67626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6055,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6092,13 +6080,13 @@
         <v>56314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6107,13 +6095,13 @@
         <v>56314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6129,13 @@
         <v>244430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -6156,13 +6144,13 @@
         <v>244430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6178,13 @@
         <v>326921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -6205,13 +6193,13 @@
         <v>326921</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,13 +6227,13 @@
         <v>169279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -6254,13 +6242,13 @@
         <v>169279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6276,13 @@
         <v>114664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -6303,13 +6291,13 @@
         <v>114664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6351,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6388,13 +6376,13 @@
         <v>66569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6403,13 +6391,13 @@
         <v>66569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6425,13 @@
         <v>118948</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -6452,13 +6440,13 @@
         <v>118948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6474,13 @@
         <v>274793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M24" s="7">
         <v>260</v>
@@ -6501,13 +6489,13 @@
         <v>274793</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6523,13 @@
         <v>139850</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -6550,13 +6538,13 @@
         <v>139850</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6572,13 @@
         <v>74479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>71</v>
@@ -6599,13 +6587,13 @@
         <v>74479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,7 +6647,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6684,13 +6672,13 @@
         <v>76995</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6699,13 +6687,13 @@
         <v>76995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6721,13 @@
         <v>232937</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>206</v>
@@ -6748,13 +6736,13 @@
         <v>232937</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6770,13 @@
         <v>311591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M30" s="7">
         <v>294</v>
@@ -6797,13 +6785,13 @@
         <v>311591</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6819,13 @@
         <v>179812</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M31" s="7">
         <v>169</v>
@@ -6846,13 +6834,13 @@
         <v>179812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6868,13 @@
         <v>120550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -6895,13 +6883,13 @@
         <v>120550</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6968,13 @@
         <v>251902</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M34" s="7">
         <v>225</v>
@@ -6995,13 +6983,13 @@
         <v>251902</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7017,13 @@
         <v>745486</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M35" s="7">
         <v>669</v>
@@ -7044,13 +7032,13 @@
         <v>745486</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7066,13 @@
         <v>1106691</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M36" s="7">
         <v>1061</v>
@@ -7093,13 +7081,13 @@
         <v>1106691</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7115,13 @@
         <v>563675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
         <v>545</v>
@@ -7142,13 +7130,13 @@
         <v>563675</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7164,13 @@
         <v>393781</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>377</v>
@@ -7191,13 +7179,13 @@
         <v>393781</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174D82A-257A-4C28-B81B-3F4609F3275A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0889D-0987-4D74-9BD1-987A7ED1B957}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7289,7 +7277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7409,13 +7397,13 @@
         <v>5003</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -7424,13 +7412,13 @@
         <v>5003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7446,13 @@
         <v>34803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -7473,13 +7461,13 @@
         <v>34803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7495,13 @@
         <v>13990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -7522,13 +7510,13 @@
         <v>13990</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7544,13 @@
         <v>9476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -7571,13 +7559,13 @@
         <v>9476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7593,13 @@
         <v>11355</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -7620,13 +7608,13 @@
         <v>11355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7693,13 @@
         <v>45926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -7720,13 +7708,13 @@
         <v>45926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7742,13 @@
         <v>112543</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -7769,13 +7757,13 @@
         <v>112543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7791,13 @@
         <v>112450</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
         <v>190</v>
@@ -7818,13 +7806,13 @@
         <v>112450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7840,13 @@
         <v>58196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -7867,13 +7855,13 @@
         <v>58196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7889,13 @@
         <v>33706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -7916,13 +7904,13 @@
         <v>33706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,7 +7964,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8001,13 +7989,13 @@
         <v>79062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -8016,13 +8004,13 @@
         <v>79062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8038,13 @@
         <v>188377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>315</v>
@@ -8065,13 +8053,13 @@
         <v>188377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8087,13 @@
         <v>203203</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>305</v>
@@ -8114,13 +8102,13 @@
         <v>203203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8136,13 @@
         <v>143468</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -8163,13 +8151,13 @@
         <v>143468</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8185,13 @@
         <v>68429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -8212,13 +8200,13 @@
         <v>68429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,7 +8260,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8297,13 +8285,13 @@
         <v>42218</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -8312,13 +8300,13 @@
         <v>42218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8334,13 @@
         <v>171305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>242</v>
@@ -8361,13 +8349,13 @@
         <v>171305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,13 +8383,13 @@
         <v>129857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -8410,13 +8398,13 @@
         <v>129857</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8444,13 +8432,13 @@
         <v>76051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -8459,13 +8447,13 @@
         <v>76051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>328</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,13 +8481,13 @@
         <v>64271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>88</v>
@@ -8508,13 +8496,13 @@
         <v>64271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,7 +8556,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8593,13 +8581,13 @@
         <v>40365</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -8608,13 +8596,13 @@
         <v>40365</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8642,13 +8630,13 @@
         <v>250963</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>377</v>
@@ -8657,13 +8645,13 @@
         <v>250963</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,13 +8679,13 @@
         <v>173719</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>236</v>
@@ -8706,13 +8694,13 @@
         <v>173719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,13 +8728,13 @@
         <v>152733</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M31" s="7">
         <v>203</v>
@@ -8755,13 +8743,13 @@
         <v>152733</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,13 +8777,13 @@
         <v>105707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M32" s="7">
         <v>138</v>
@@ -8804,13 +8792,13 @@
         <v>105707</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,13 +8877,13 @@
         <v>212574</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M34" s="7">
         <v>320</v>
@@ -8904,13 +8892,13 @@
         <v>212574</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8926,13 @@
         <v>757991</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M35" s="7">
         <v>1231</v>
@@ -8953,13 +8941,13 @@
         <v>757991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8987,13 +8975,13 @@
         <v>633219</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M36" s="7">
         <v>933</v>
@@ -9002,13 +8990,13 @@
         <v>633219</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +9024,13 @@
         <v>439924</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>52</v>
+        <v>358</v>
       </c>
       <c r="M37" s="7">
         <v>631</v>
@@ -9051,13 +9039,13 @@
         <v>439924</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>52</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9085,13 +9073,13 @@
         <v>283468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M38" s="7">
         <v>389</v>
@@ -9100,13 +9088,13 @@
         <v>283468</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E563DD-7D8E-4F23-ACEB-99FE6AC5B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16FDA60-DB5C-4D79-9E32-086D9498DB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5923DA03-849A-47BB-9C67-88E0E2A16842}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9697DEE7-D9EA-4EF6-B8C9-92954D910A39}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="371">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>23,49%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -95,7 +95,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>15,15%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -104,10 +104,10 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -116,10 +116,10 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -128,10 +128,10 @@
     <t>7,62%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,985 +143,1015 @@
     <t>20,8%</t>
   </si>
   <si>
-    <t>15,46%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEEEEB8-82AB-4139-98E5-4AD0045890C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49CFBB-12AC-4910-9751-602923B2CB71}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1972,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -1987,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2045,13 @@
         <v>29705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -2030,13 +2060,13 @@
         <v>29705</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,13 +2094,13 @@
         <v>44938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -2079,13 +2109,13 @@
         <v>44938</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2143,13 @@
         <v>37679</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2128,13 +2158,13 @@
         <v>37679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2192,13 @@
         <v>18842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2177,13 +2207,13 @@
         <v>18842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,7 +2267,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2292,13 @@
         <v>68172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2277,13 +2307,13 @@
         <v>68172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2341,13 @@
         <v>64523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -2326,13 +2356,13 @@
         <v>64523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2390,13 @@
         <v>67693</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -2375,13 +2405,13 @@
         <v>67693</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2439,13 @@
         <v>67489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2424,13 +2454,13 @@
         <v>67489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2488,13 @@
         <v>47792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -2473,13 +2503,13 @@
         <v>47792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2563,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2558,13 +2588,13 @@
         <v>49720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -2573,13 +2603,13 @@
         <v>49720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2637,13 @@
         <v>43365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2622,13 +2652,13 @@
         <v>43365</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,7 +2988,7 @@
         <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -2973,7 +3003,7 @@
         <v>87</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3031,13 @@
         <v>52478</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -3016,13 +3046,13 @@
         <v>52478</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3080,13 @@
         <v>72129</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>70</v>
@@ -3065,13 +3095,13 @@
         <v>72129</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3180,13 @@
         <v>243533</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M34" s="7">
         <v>235</v>
@@ -3165,13 +3195,13 @@
         <v>243533</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3229,13 @@
         <v>204651</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M35" s="7">
         <v>198</v>
@@ -3214,13 +3244,13 @@
         <v>204651</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3278,13 @@
         <v>252904</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M36" s="7">
         <v>248</v>
@@ -3263,13 +3293,13 @@
         <v>252904</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,10 +3327,10 @@
         <v>213973</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>105</v>
@@ -3312,10 +3342,10 @@
         <v>213973</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>105</v>
@@ -3442,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67C95DB-296B-4E82-9DE3-6DA871F69226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B04A915-7286-4DC3-9947-35C4ED580007}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3973,13 +4003,13 @@
         <v>136333</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -3988,13 +4018,13 @@
         <v>136333</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4052,13 @@
         <v>105467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -4037,13 +4067,13 @@
         <v>105467</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4101,13 @@
         <v>65354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -4086,13 +4116,13 @@
         <v>65354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4176,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4171,13 +4201,13 @@
         <v>89969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -4186,13 +4216,13 @@
         <v>89969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4250,13 @@
         <v>179425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -4235,13 +4265,13 @@
         <v>179425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4299,13 @@
         <v>257403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>236</v>
@@ -4284,13 +4314,13 @@
         <v>257403</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4348,13 @@
         <v>182209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -4333,13 +4363,13 @@
         <v>182209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4397,13 @@
         <v>160877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4382,13 +4412,13 @@
         <v>160877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,7 +4472,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4467,13 +4497,13 @@
         <v>53703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -4482,13 +4512,13 @@
         <v>53703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4546,13 @@
         <v>151820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>138</v>
@@ -4531,13 +4561,13 @@
         <v>151820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4595,13 @@
         <v>194926</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>172</v>
@@ -4580,13 +4610,13 @@
         <v>194926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4644,13 @@
         <v>162454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -4629,13 +4659,13 @@
         <v>162454</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4693,13 @@
         <v>132566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -4678,13 +4708,13 @@
         <v>132566</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4793,13 @@
         <v>112983</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>110</v>
@@ -4778,13 +4808,13 @@
         <v>112983</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4842,13 @@
         <v>191263</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -4827,13 +4857,13 @@
         <v>191263</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4891,13 @@
         <v>297448</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>281</v>
@@ -4876,13 +4906,13 @@
         <v>297448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4940,13 @@
         <v>189382</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>179</v>
@@ -4925,13 +4955,13 @@
         <v>189382</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4989,13 @@
         <v>131416</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>123</v>
@@ -4974,13 +5004,13 @@
         <v>131416</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5089,13 @@
         <v>330198</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" s="7">
         <v>311</v>
@@ -5074,13 +5104,13 @@
         <v>330198</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5138,13 @@
         <v>676078</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="M35" s="7">
         <v>626</v>
@@ -5123,13 +5153,13 @@
         <v>676078</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5187,13 @@
         <v>913943</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>842</v>
@@ -5172,13 +5202,13 @@
         <v>913943</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5236,13 @@
         <v>658107</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M37" s="7">
         <v>603</v>
@@ -5221,13 +5251,13 @@
         <v>658107</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5285,13 @@
         <v>503832</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>464</v>
@@ -5270,13 +5300,13 @@
         <v>503832</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541EF9A-ACA1-4438-88DA-38EDA03AA5D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FCF2B4-D1F4-4B27-9DE9-66BDC3EB27BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5368,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5488,13 +5518,13 @@
         <v>8893</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -5503,13 +5533,13 @@
         <v>8893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5567,13 @@
         <v>24761</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5552,13 +5582,13 @@
         <v>24761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5616,13 @@
         <v>33544</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -5601,13 +5631,13 @@
         <v>33544</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5665,13 @@
         <v>10936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -5650,13 +5680,13 @@
         <v>10936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5714,13 @@
         <v>16461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5699,13 +5729,13 @@
         <v>16461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5814,13 @@
         <v>43131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5799,13 +5829,13 @@
         <v>43131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5863,13 @@
         <v>124411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -5848,13 +5878,13 @@
         <v>124411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5912,13 @@
         <v>159843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -5897,13 +5927,13 @@
         <v>159843</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5961,13 @@
         <v>63798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5946,13 +5976,13 @@
         <v>63798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +6010,13 @@
         <v>67626</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -5995,13 +6025,13 @@
         <v>67626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6080,13 +6110,13 @@
         <v>56314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6095,13 +6125,13 @@
         <v>56314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6159,13 @@
         <v>244430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -6144,13 +6174,13 @@
         <v>244430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6208,13 @@
         <v>326921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -6193,13 +6223,13 @@
         <v>326921</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6257,13 @@
         <v>169279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -6242,13 +6272,13 @@
         <v>169279</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6306,13 @@
         <v>114664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -6291,13 +6321,13 @@
         <v>114664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6376,13 +6406,13 @@
         <v>66569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6391,13 +6421,13 @@
         <v>66569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6455,13 @@
         <v>118948</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -6440,13 +6470,13 @@
         <v>118948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6504,13 @@
         <v>274793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M24" s="7">
         <v>260</v>
@@ -6489,13 +6519,13 @@
         <v>274793</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6553,13 @@
         <v>139850</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -6538,13 +6568,13 @@
         <v>139850</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6602,13 @@
         <v>74479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M26" s="7">
         <v>71</v>
@@ -6587,13 +6617,13 @@
         <v>74479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6702,13 @@
         <v>76995</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6687,13 +6717,13 @@
         <v>76995</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6751,13 @@
         <v>232937</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M29" s="7">
         <v>206</v>
@@ -6736,13 +6766,13 @@
         <v>232937</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6800,13 @@
         <v>311591</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M30" s="7">
         <v>294</v>
@@ -6785,13 +6815,13 @@
         <v>311591</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6849,13 @@
         <v>179812</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M31" s="7">
         <v>169</v>
@@ -6834,13 +6864,13 @@
         <v>179812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6898,13 @@
         <v>120550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -6883,13 +6913,13 @@
         <v>120550</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6998,13 @@
         <v>251902</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M34" s="7">
         <v>225</v>
@@ -6983,13 +7013,13 @@
         <v>251902</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +7047,13 @@
         <v>745486</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M35" s="7">
         <v>669</v>
@@ -7032,13 +7062,13 @@
         <v>745486</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7096,13 @@
         <v>1106691</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M36" s="7">
         <v>1061</v>
@@ -7081,13 +7111,13 @@
         <v>1106691</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7145,13 @@
         <v>563675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M37" s="7">
         <v>545</v>
@@ -7130,13 +7160,13 @@
         <v>563675</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7194,13 @@
         <v>393781</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M38" s="7">
         <v>377</v>
@@ -7179,13 +7209,13 @@
         <v>393781</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,7 +7290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0889D-0987-4D74-9BD1-987A7ED1B957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA5742B-FFB5-4EDD-83A9-5CCCF86C300E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7277,7 +7307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7397,13 +7427,13 @@
         <v>5003</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -7412,13 +7442,13 @@
         <v>5003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7476,13 @@
         <v>34803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>74</v>
@@ -7461,13 +7491,13 @@
         <v>34803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7525,13 @@
         <v>13990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -7510,13 +7540,13 @@
         <v>13990</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7574,13 @@
         <v>9476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -7559,13 +7589,13 @@
         <v>9476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7623,13 @@
         <v>11355</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -7608,13 +7638,13 @@
         <v>11355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7723,13 @@
         <v>45926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -7708,13 +7738,13 @@
         <v>45926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7772,13 @@
         <v>112543</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -7757,13 +7787,13 @@
         <v>112543</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7821,13 @@
         <v>112450</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M12" s="7">
         <v>190</v>
@@ -7806,13 +7836,13 @@
         <v>112450</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7870,13 @@
         <v>58196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -7855,13 +7885,13 @@
         <v>58196</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7919,13 @@
         <v>33706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -7904,13 +7934,13 @@
         <v>33706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,7 +7994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7989,13 +8019,13 @@
         <v>79062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -8004,13 +8034,13 @@
         <v>79062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8068,13 @@
         <v>188377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>315</v>
@@ -8053,13 +8083,13 @@
         <v>188377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8117,13 @@
         <v>203203</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>305</v>
@@ -8102,13 +8132,13 @@
         <v>203203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8166,13 @@
         <v>143468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -8151,13 +8181,13 @@
         <v>143468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8215,13 @@
         <v>68429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -8200,13 +8230,13 @@
         <v>68429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,7 +8290,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8285,13 +8315,13 @@
         <v>42218</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -8300,13 +8330,13 @@
         <v>42218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8364,13 @@
         <v>171305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>242</v>
@@ -8349,13 +8379,13 @@
         <v>171305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8413,13 @@
         <v>129857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -8398,13 +8428,13 @@
         <v>129857</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,13 +8462,13 @@
         <v>76051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -8447,13 +8477,13 @@
         <v>76051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8511,13 @@
         <v>64271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>88</v>
@@ -8496,13 +8526,13 @@
         <v>64271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8611,13 @@
         <v>40365</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -8596,13 +8626,13 @@
         <v>40365</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8660,13 @@
         <v>250963</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M29" s="7">
         <v>377</v>
@@ -8645,13 +8675,13 @@
         <v>250963</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,13 +8709,13 @@
         <v>173719</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M30" s="7">
         <v>236</v>
@@ -8694,13 +8724,13 @@
         <v>173719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8758,13 @@
         <v>152733</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M31" s="7">
         <v>203</v>
@@ -8743,13 +8773,13 @@
         <v>152733</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,13 +8807,13 @@
         <v>105707</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="M32" s="7">
         <v>138</v>
@@ -8792,13 +8822,13 @@
         <v>105707</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8877,13 +8907,13 @@
         <v>212574</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M34" s="7">
         <v>320</v>
@@ -8892,13 +8922,13 @@
         <v>212574</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8956,13 @@
         <v>757991</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M35" s="7">
         <v>1231</v>
@@ -8941,13 +8971,13 @@
         <v>757991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8975,13 +9005,13 @@
         <v>633219</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M36" s="7">
         <v>933</v>
@@ -8990,13 +9020,13 @@
         <v>633219</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,13 +9054,13 @@
         <v>439924</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="M37" s="7">
         <v>631</v>
@@ -9039,13 +9069,13 @@
         <v>439924</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9103,13 @@
         <v>283468</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M38" s="7">
         <v>389</v>
@@ -9088,13 +9118,13 @@
         <v>283468</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16FDA60-DB5C-4D79-9E32-086D9498DB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F97FE0-02B4-4DE6-8FA6-5C778F0FEF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9697DEE7-D9EA-4EF6-B8C9-92954D910A39}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D61466FB-FA86-4272-A6FC-33A571633E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="309">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca ha ido por motivos diferentes al embarazo o parto</t>
@@ -77,114 +77,66 @@
     <t>—%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -233,7 +185,7 @@
     <t>20,18%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>22,34%</t>
@@ -374,91 +326,46 @@
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>10,34%</t>
@@ -524,9 +431,6 @@
     <t>25,28%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
     <t>24,59%</t>
   </si>
   <si>
@@ -641,88 +545,43 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>6,18%</t>
@@ -899,259 +758,214 @@
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
 </sst>
 </file>
@@ -1563,8 +1377,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49CFBB-12AC-4910-9751-602923B2CB71}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8D076B-17B4-4D7A-BC84-E33AC8B986AB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1694,10 +1508,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>7903</v>
+        <v>42357</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1709,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>7903</v>
+        <v>42357</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1743,10 +1557,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>1699</v>
+        <v>31404</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1758,10 +1572,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>1699</v>
+        <v>31404</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1792,10 +1606,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I6" s="7">
-        <v>6986</v>
+        <v>51924</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -1807,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>6986</v>
+        <v>51924</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>20</v>
@@ -1841,10 +1655,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>14490</v>
+        <v>52169</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
@@ -1856,10 +1670,10 @@
         <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>14490</v>
+        <v>52169</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
@@ -1890,10 +1704,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>2564</v>
+        <v>21406</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>28</v>
@@ -1905,10 +1719,10 @@
         <v>30</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>2564</v>
+        <v>21406</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -1939,10 +1753,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="I9" s="7">
-        <v>33641</v>
+        <v>199260</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -1954,10 +1768,10 @@
         <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="N9" s="7">
-        <v>33641</v>
+        <v>199260</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -1990,10 +1804,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>34455</v>
+        <v>68172</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>33</v>
@@ -2005,10 +1819,10 @@
         <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>34455</v>
+        <v>68172</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>33</v>
@@ -2039,10 +1853,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>29705</v>
+        <v>64523</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2054,10 +1868,10 @@
         <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>29705</v>
+        <v>64523</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2088,10 +1902,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>44938</v>
+        <v>67693</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>39</v>
@@ -2103,10 +1917,10 @@
         <v>41</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>44938</v>
+        <v>67693</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>39</v>
@@ -2137,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>37679</v>
+        <v>67489</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>42</v>
@@ -2152,10 +1966,10 @@
         <v>44</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>37679</v>
+        <v>67489</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>42</v>
@@ -2186,10 +2000,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>18842</v>
+        <v>47792</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>45</v>
@@ -2201,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>18842</v>
+        <v>47792</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>45</v>
@@ -2235,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="I15" s="7">
-        <v>165619</v>
+        <v>315669</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -2250,10 +2064,10 @@
         <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="N15" s="7">
-        <v>165619</v>
+        <v>315669</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -2286,10 +2100,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I16" s="7">
-        <v>68172</v>
+        <v>49720</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>49</v>
@@ -2301,10 +2115,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="7">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>68172</v>
+        <v>49720</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>49</v>
@@ -2335,10 +2149,10 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>64523</v>
+        <v>43365</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>52</v>
@@ -2347,13 +2161,13 @@
         <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>64523</v>
+        <v>43365</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>52</v>
@@ -2362,7 +2176,7 @@
         <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,34 +2198,34 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I18" s="7">
-        <v>67693</v>
+        <v>54870</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
         <v>57</v>
       </c>
-      <c r="M18" s="7">
-        <v>65</v>
-      </c>
       <c r="N18" s="7">
-        <v>67693</v>
+        <v>54870</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,34 +2247,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>67489</v>
+        <v>41837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>67489</v>
+        <v>41837</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,34 +2296,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I20" s="7">
-        <v>47792</v>
+        <v>32728</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N20" s="7">
-        <v>47792</v>
+        <v>32728</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,10 +2345,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="I21" s="7">
-        <v>315669</v>
+        <v>222520</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -2546,10 +2360,10 @@
         <v>31</v>
       </c>
       <c r="M21" s="7">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="N21" s="7">
-        <v>315669</v>
+        <v>222520</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -2563,7 +2377,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2582,34 +2396,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>49720</v>
+        <v>83284</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M22" s="7">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="N22" s="7">
-        <v>49720</v>
+        <v>83284</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,34 +2445,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I23" s="7">
-        <v>43365</v>
+        <v>65359</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="M23" s="7">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>43365</v>
+        <v>65359</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,10 +2494,10 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I24" s="7">
-        <v>54870</v>
+        <v>78417</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>70</v>
@@ -2692,13 +2506,13 @@
         <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M24" s="7">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="N24" s="7">
-        <v>54870</v>
+        <v>78417</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>70</v>
@@ -2707,7 +2521,7 @@
         <v>71</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,34 +2543,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I25" s="7">
-        <v>41837</v>
+        <v>52478</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="M25" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N25" s="7">
-        <v>41837</v>
+        <v>52478</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,34 +2592,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I26" s="7">
-        <v>32728</v>
+        <v>72129</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M26" s="7">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N26" s="7">
-        <v>32728</v>
+        <v>72129</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,10 +2641,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="I27" s="7">
-        <v>222520</v>
+        <v>351667</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -2842,10 +2656,10 @@
         <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="N27" s="7">
-        <v>222520</v>
+        <v>351667</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -2859,7 +2673,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2878,34 +2692,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
+        <v>235</v>
+      </c>
+      <c r="I28" s="7">
+        <v>243533</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="7">
-        <v>83284</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="M28" s="7">
+        <v>235</v>
+      </c>
+      <c r="N28" s="7">
+        <v>243533</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N28" s="7">
-        <v>83284</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,34 +2741,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="I29" s="7">
-        <v>65359</v>
+        <v>204651</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="M29" s="7">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="N29" s="7">
-        <v>65359</v>
+        <v>204651</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,34 +2790,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="I30" s="7">
-        <v>78417</v>
+        <v>252904</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="M30" s="7">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="N30" s="7">
-        <v>78417</v>
+        <v>252904</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,34 +2839,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="I31" s="7">
-        <v>52478</v>
+        <v>213973</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="M31" s="7">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="N31" s="7">
-        <v>52478</v>
+        <v>213973</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,34 +2888,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="I32" s="7">
-        <v>72129</v>
+        <v>174055</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="M32" s="7">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="N32" s="7">
-        <v>72129</v>
+        <v>174055</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>338</v>
+        <v>1062</v>
       </c>
       <c r="I33" s="7">
-        <v>351667</v>
+        <v>1089116</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -3138,10 +2952,10 @@
         <v>31</v>
       </c>
       <c r="M33" s="7">
-        <v>338</v>
+        <v>1062</v>
       </c>
       <c r="N33" s="7">
-        <v>351667</v>
+        <v>1089116</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -3154,312 +2968,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>235</v>
-      </c>
-      <c r="I34" s="7">
-        <v>243533</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="7">
-        <v>235</v>
-      </c>
-      <c r="N34" s="7">
-        <v>243533</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>198</v>
-      </c>
-      <c r="I35" s="7">
-        <v>204651</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="7">
-        <v>198</v>
-      </c>
-      <c r="N35" s="7">
-        <v>204651</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>248</v>
-      </c>
-      <c r="I36" s="7">
-        <v>252904</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="7">
-        <v>248</v>
-      </c>
-      <c r="N36" s="7">
-        <v>252904</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>209</v>
-      </c>
-      <c r="I37" s="7">
-        <v>213973</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M37" s="7">
-        <v>209</v>
-      </c>
-      <c r="N37" s="7">
-        <v>213973</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>172</v>
-      </c>
-      <c r="I38" s="7">
-        <v>174055</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M38" s="7">
-        <v>172</v>
-      </c>
-      <c r="N38" s="7">
-        <v>174055</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1062</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1089116</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1062</v>
-      </c>
-      <c r="N39" s="7">
-        <v>1089116</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>109</v>
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3472,8 +2989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B04A915-7286-4DC3-9947-35C4ED580007}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102FD26D-E957-4D68-B879-E503D6586014}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3489,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3603,34 +3120,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>9735</v>
+        <v>73542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>9735</v>
+        <v>73542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,34 +3169,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I5" s="7">
-        <v>19624</v>
+        <v>153571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="N5" s="7">
-        <v>19624</v>
+        <v>153571</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,34 +3218,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I6" s="7">
-        <v>27833</v>
+        <v>164167</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="M6" s="7">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="N6" s="7">
-        <v>27833</v>
+        <v>164167</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,34 +3267,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I7" s="7">
-        <v>18595</v>
+        <v>124062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>18595</v>
+        <v>124062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,34 +3316,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7">
-        <v>13620</v>
+        <v>78973</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="N8" s="7">
-        <v>13620</v>
+        <v>78973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,10 +3365,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="I9" s="7">
-        <v>89408</v>
+        <v>594316</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -3863,10 +3380,10 @@
         <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>89408</v>
+        <v>594316</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -3899,34 +3416,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>63807</v>
+        <v>89969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>63807</v>
+        <v>89969</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,34 +3465,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>133947</v>
+        <v>179425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>133947</v>
+        <v>179425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,34 +3514,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>136333</v>
+        <v>257403</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="N12" s="7">
-        <v>136333</v>
+        <v>257403</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,34 +3563,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>105467</v>
+        <v>182209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>105467</v>
+        <v>182209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,34 +3612,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="I14" s="7">
-        <v>65354</v>
+        <v>160877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>65354</v>
+        <v>160877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,10 +3661,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>474</v>
+        <v>789</v>
       </c>
       <c r="I15" s="7">
-        <v>504907</v>
+        <v>869882</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -4159,10 +3676,10 @@
         <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>474</v>
+        <v>789</v>
       </c>
       <c r="N15" s="7">
-        <v>504907</v>
+        <v>869882</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -4195,34 +3712,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>89969</v>
+        <v>53703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>89969</v>
+        <v>53703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,34 +3761,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="I17" s="7">
-        <v>179425</v>
+        <v>151820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="N17" s="7">
-        <v>179425</v>
+        <v>151820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,34 +3810,34 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="I18" s="7">
-        <v>257403</v>
+        <v>194926</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="N18" s="7">
-        <v>257403</v>
+        <v>194926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,34 +3859,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I19" s="7">
-        <v>182209</v>
+        <v>162454</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="N19" s="7">
-        <v>182209</v>
+        <v>162454</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,34 +3908,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="I20" s="7">
-        <v>160877</v>
+        <v>132566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="N20" s="7">
-        <v>160877</v>
+        <v>132566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>789</v>
+        <v>627</v>
       </c>
       <c r="I21" s="7">
-        <v>869882</v>
+        <v>695469</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -4455,10 +3972,10 @@
         <v>31</v>
       </c>
       <c r="M21" s="7">
-        <v>789</v>
+        <v>627</v>
       </c>
       <c r="N21" s="7">
-        <v>869882</v>
+        <v>695469</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -4472,7 +3989,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4491,34 +4008,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="I22" s="7">
-        <v>53703</v>
+        <v>112983</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N22" s="7">
-        <v>53703</v>
+        <v>112983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,34 +4057,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="I23" s="7">
-        <v>151820</v>
+        <v>191263</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="N23" s="7">
-        <v>151820</v>
+        <v>191263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,34 +4106,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="I24" s="7">
-        <v>194926</v>
+        <v>297448</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="N24" s="7">
-        <v>194926</v>
+        <v>297448</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,34 +4155,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
+        <v>179</v>
+      </c>
+      <c r="I25" s="7">
+        <v>189382</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="7">
-        <v>162454</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="M25" s="7">
+        <v>179</v>
+      </c>
+      <c r="N25" s="7">
+        <v>189382</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="N25" s="7">
-        <v>162454</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,34 +4204,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I26" s="7">
-        <v>132566</v>
+        <v>131416</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N26" s="7">
-        <v>132566</v>
+        <v>131416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,10 +4253,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>627</v>
+        <v>878</v>
       </c>
       <c r="I27" s="7">
-        <v>695469</v>
+        <v>922492</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -4751,10 +4268,10 @@
         <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>627</v>
+        <v>878</v>
       </c>
       <c r="N27" s="7">
-        <v>695469</v>
+        <v>922492</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -4768,7 +4285,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4787,34 +4304,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="I28" s="7">
-        <v>112983</v>
+        <v>330198</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="N28" s="7">
-        <v>112983</v>
+        <v>330198</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,34 +4353,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>185</v>
+        <v>626</v>
       </c>
       <c r="I29" s="7">
-        <v>191263</v>
+        <v>676078</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
-        <v>185</v>
+        <v>626</v>
       </c>
       <c r="N29" s="7">
-        <v>191263</v>
+        <v>676078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,34 +4402,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>281</v>
+        <v>842</v>
       </c>
       <c r="I30" s="7">
-        <v>297448</v>
+        <v>913943</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
-        <v>281</v>
+        <v>842</v>
       </c>
       <c r="N30" s="7">
-        <v>297448</v>
+        <v>913943</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,34 +4451,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>179</v>
+        <v>603</v>
       </c>
       <c r="I31" s="7">
-        <v>189382</v>
+        <v>658107</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
-        <v>179</v>
+        <v>603</v>
       </c>
       <c r="N31" s="7">
-        <v>189382</v>
+        <v>658107</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,34 +4500,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>123</v>
+        <v>464</v>
       </c>
       <c r="I32" s="7">
-        <v>131416</v>
+        <v>503832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M32" s="7">
-        <v>123</v>
+        <v>464</v>
       </c>
       <c r="N32" s="7">
-        <v>131416</v>
+        <v>503832</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,10 +4549,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>878</v>
+        <v>2846</v>
       </c>
       <c r="I33" s="7">
-        <v>922492</v>
+        <v>3082158</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -5047,10 +4564,10 @@
         <v>31</v>
       </c>
       <c r="M33" s="7">
-        <v>878</v>
+        <v>2846</v>
       </c>
       <c r="N33" s="7">
-        <v>922492</v>
+        <v>3082158</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -5063,312 +4580,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>311</v>
-      </c>
-      <c r="I34" s="7">
-        <v>330198</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="7">
-        <v>311</v>
-      </c>
-      <c r="N34" s="7">
-        <v>330198</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>626</v>
-      </c>
-      <c r="I35" s="7">
-        <v>676078</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M35" s="7">
-        <v>626</v>
-      </c>
-      <c r="N35" s="7">
-        <v>676078</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>842</v>
-      </c>
-      <c r="I36" s="7">
-        <v>913943</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="7">
-        <v>842</v>
-      </c>
-      <c r="N36" s="7">
-        <v>913943</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>603</v>
-      </c>
-      <c r="I37" s="7">
-        <v>658107</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M37" s="7">
-        <v>603</v>
-      </c>
-      <c r="N37" s="7">
-        <v>658107</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>464</v>
-      </c>
-      <c r="I38" s="7">
-        <v>503832</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M38" s="7">
-        <v>464</v>
-      </c>
-      <c r="N38" s="7">
-        <v>503832</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>2846</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3082158</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="7">
-        <v>2846</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3082158</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>109</v>
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5381,8 +4601,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FCF2B4-D1F4-4B27-9DE9-66BDC3EB27BC}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9A61E8-A43B-4E36-81E4-BC2D3ACB677C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5398,7 +4618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5512,34 +4732,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>8893</v>
+        <v>52024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>8893</v>
+        <v>52024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,34 +4781,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>24761</v>
+        <v>149172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="N5" s="7">
-        <v>24761</v>
+        <v>149172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,34 +4830,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="I6" s="7">
-        <v>33544</v>
+        <v>193387</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="N6" s="7">
-        <v>33544</v>
+        <v>193387</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,34 +4879,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>10936</v>
+        <v>74734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="N7" s="7">
-        <v>10936</v>
+        <v>74734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,34 +4928,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I8" s="7">
-        <v>16461</v>
+        <v>84088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>16461</v>
+        <v>84088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,10 +4977,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="I9" s="7">
-        <v>94596</v>
+        <v>553405</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -5772,10 +4992,10 @@
         <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="N9" s="7">
-        <v>94596</v>
+        <v>553405</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -5808,34 +5028,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>43131</v>
+        <v>56314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>43131</v>
+        <v>56314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,34 +5077,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>124411</v>
+        <v>244430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="7">
         <v>217</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M11" s="7">
-        <v>117</v>
-      </c>
       <c r="N11" s="7">
-        <v>124411</v>
+        <v>244430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,34 +5126,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>159843</v>
+        <v>326921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="N12" s="7">
-        <v>159843</v>
+        <v>326921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,34 +5175,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7">
-        <v>63798</v>
+        <v>169279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="N13" s="7">
-        <v>63798</v>
+        <v>169279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,34 +5224,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>67626</v>
+        <v>114664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7">
-        <v>67626</v>
+        <v>114664</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,10 +5273,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>451</v>
+        <v>849</v>
       </c>
       <c r="I15" s="7">
-        <v>458809</v>
+        <v>911608</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -6068,10 +5288,10 @@
         <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>849</v>
       </c>
       <c r="N15" s="7">
-        <v>458809</v>
+        <v>911608</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -6104,34 +5324,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>56314</v>
+        <v>66569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N16" s="7">
-        <v>56314</v>
+        <v>66569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,34 +5373,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>244430</v>
+        <v>118948</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>244430</v>
+        <v>118948</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +5422,34 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="I18" s="7">
-        <v>326921</v>
+        <v>274793</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="N18" s="7">
-        <v>326921</v>
+        <v>274793</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,34 +5471,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="I19" s="7">
-        <v>169279</v>
+        <v>139850</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>169279</v>
+        <v>139850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,34 +5520,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I20" s="7">
-        <v>114664</v>
+        <v>74479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="N20" s="7">
-        <v>114664</v>
+        <v>74479</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,10 +5569,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>849</v>
+        <v>635</v>
       </c>
       <c r="I21" s="7">
-        <v>911608</v>
+        <v>674639</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -6364,10 +5584,10 @@
         <v>31</v>
       </c>
       <c r="M21" s="7">
-        <v>849</v>
+        <v>635</v>
       </c>
       <c r="N21" s="7">
-        <v>911608</v>
+        <v>674639</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -6381,7 +5601,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6400,34 +5620,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>66569</v>
+        <v>76995</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N22" s="7">
-        <v>66569</v>
+        <v>76995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,34 +5669,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="I23" s="7">
-        <v>118948</v>
+        <v>232937</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="N23" s="7">
-        <v>118948</v>
+        <v>232937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,34 +5718,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="I24" s="7">
-        <v>274793</v>
+        <v>311591</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="M24" s="7">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="N24" s="7">
-        <v>274793</v>
+        <v>311591</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,34 +5767,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I25" s="7">
-        <v>139850</v>
+        <v>179812</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="N25" s="7">
-        <v>139850</v>
+        <v>179812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,34 +5816,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="I26" s="7">
-        <v>74479</v>
+        <v>120550</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="N26" s="7">
-        <v>74479</v>
+        <v>120550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,10 +5865,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>635</v>
+        <v>845</v>
       </c>
       <c r="I27" s="7">
-        <v>674639</v>
+        <v>921885</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -6660,10 +5880,10 @@
         <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>635</v>
+        <v>845</v>
       </c>
       <c r="N27" s="7">
-        <v>674639</v>
+        <v>921885</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -6677,7 +5897,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6696,34 +5916,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="I28" s="7">
-        <v>76995</v>
+        <v>251902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="M28" s="7">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="N28" s="7">
-        <v>76995</v>
+        <v>251902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,34 +5965,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>206</v>
+        <v>669</v>
       </c>
       <c r="I29" s="7">
-        <v>232937</v>
+        <v>745487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
-        <v>206</v>
+        <v>669</v>
       </c>
       <c r="N29" s="7">
-        <v>232937</v>
+        <v>745487</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,34 +6014,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>294</v>
+        <v>1061</v>
       </c>
       <c r="I30" s="7">
-        <v>311591</v>
+        <v>1106692</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="M30" s="7">
-        <v>294</v>
+        <v>1061</v>
       </c>
       <c r="N30" s="7">
-        <v>311591</v>
+        <v>1106692</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,34 +6063,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="I31" s="7">
-        <v>179812</v>
+        <v>563676</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="M31" s="7">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="N31" s="7">
-        <v>179812</v>
+        <v>563676</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,34 +6112,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="I32" s="7">
-        <v>120550</v>
+        <v>393782</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="N32" s="7">
-        <v>120550</v>
+        <v>393782</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,10 +6161,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>845</v>
+        <v>2877</v>
       </c>
       <c r="I33" s="7">
-        <v>921885</v>
+        <v>3061537</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -6956,10 +6176,10 @@
         <v>31</v>
       </c>
       <c r="M33" s="7">
-        <v>845</v>
+        <v>2877</v>
       </c>
       <c r="N33" s="7">
-        <v>921885</v>
+        <v>3061537</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -6972,312 +6192,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>225</v>
-      </c>
-      <c r="I34" s="7">
-        <v>251902</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M34" s="7">
-        <v>225</v>
-      </c>
-      <c r="N34" s="7">
-        <v>251902</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>669</v>
-      </c>
-      <c r="I35" s="7">
-        <v>745486</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M35" s="7">
-        <v>669</v>
-      </c>
-      <c r="N35" s="7">
-        <v>745486</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1106691</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1061</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1106691</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>545</v>
-      </c>
-      <c r="I37" s="7">
-        <v>563675</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M37" s="7">
-        <v>545</v>
-      </c>
-      <c r="N37" s="7">
-        <v>563675</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>377</v>
-      </c>
-      <c r="I38" s="7">
-        <v>393781</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M38" s="7">
-        <v>377</v>
-      </c>
-      <c r="N38" s="7">
-        <v>393781</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>2877</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3061536</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="7">
-        <v>2877</v>
-      </c>
-      <c r="N39" s="7">
-        <v>3061536</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>109</v>
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7290,8 +6213,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA5742B-FFB5-4EDD-83A9-5CCCF86C300E}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAC224B-F611-4D79-9D46-B534DF31C3A9}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7307,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7421,34 +6344,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>5003</v>
+        <v>47221</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>5003</v>
+        <v>47221</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,34 +6393,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="I5" s="7">
-        <v>34803</v>
+        <v>138996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="N5" s="7">
-        <v>34803</v>
+        <v>138996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,34 +6442,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="I6" s="7">
-        <v>13990</v>
+        <v>117557</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="N6" s="7">
-        <v>13990</v>
+        <v>117557</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,34 +6491,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="I7" s="7">
-        <v>9476</v>
+        <v>62993</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="N7" s="7">
-        <v>9476</v>
+        <v>62993</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,34 +6540,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
-        <v>11355</v>
+        <v>43093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N8" s="7">
-        <v>11355</v>
+        <v>43093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,10 +6589,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>141</v>
+        <v>784</v>
       </c>
       <c r="I9" s="7">
-        <v>74627</v>
+        <v>409860</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -7681,10 +6604,10 @@
         <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>784</v>
       </c>
       <c r="N9" s="7">
-        <v>74627</v>
+        <v>409860</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -7717,34 +6640,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="I10" s="7">
-        <v>45926</v>
+        <v>70449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>45926</v>
+        <v>70449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,34 +6689,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>112543</v>
+        <v>172741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="N11" s="7">
-        <v>112543</v>
+        <v>172741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,34 +6738,34 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>112450</v>
+        <v>184800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="N12" s="7">
-        <v>112450</v>
+        <v>184800</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,34 +6787,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>58196</v>
+        <v>129267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="N13" s="7">
-        <v>58196</v>
+        <v>129267</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,34 +6836,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="I14" s="7">
-        <v>33706</v>
+        <v>62994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="N14" s="7">
-        <v>33706</v>
+        <v>62994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7962,10 +6885,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>643</v>
+        <v>1032</v>
       </c>
       <c r="I15" s="7">
-        <v>362821</v>
+        <v>620250</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -7977,10 +6900,10 @@
         <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>643</v>
+        <v>1032</v>
       </c>
       <c r="N15" s="7">
-        <v>362821</v>
+        <v>620250</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -8013,34 +6936,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>79062</v>
+        <v>38643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>79062</v>
+        <v>38643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,34 +6985,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="I17" s="7">
-        <v>188377</v>
+        <v>180700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="N17" s="7">
-        <v>188377</v>
+        <v>180700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,34 +7034,34 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="I18" s="7">
-        <v>203203</v>
+        <v>119858</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="N18" s="7">
-        <v>203203</v>
+        <v>119858</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,34 +7083,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="I19" s="7">
-        <v>143468</v>
+        <v>68736</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="N19" s="7">
-        <v>143468</v>
+        <v>68736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,34 +7132,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>68429</v>
+        <v>60150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N20" s="7">
-        <v>68429</v>
+        <v>60150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,10 +7181,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1032</v>
+        <v>674</v>
       </c>
       <c r="I21" s="7">
-        <v>682539</v>
+        <v>468088</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -8273,10 +7196,10 @@
         <v>31</v>
       </c>
       <c r="M21" s="7">
-        <v>1032</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>682539</v>
+        <v>468088</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -8290,7 +7213,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8309,34 +7232,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7">
-        <v>42218</v>
+        <v>35981</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N22" s="7">
-        <v>42218</v>
+        <v>35981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,34 +7281,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>377</v>
       </c>
       <c r="I23" s="7">
-        <v>171305</v>
+        <v>282365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
-        <v>242</v>
+        <v>377</v>
       </c>
       <c r="N23" s="7">
-        <v>171305</v>
+        <v>282365</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,34 +7330,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="I24" s="7">
-        <v>129857</v>
+        <v>157247</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="M24" s="7">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="N24" s="7">
-        <v>129857</v>
+        <v>157247</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,34 +7379,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="I25" s="7">
-        <v>76051</v>
+        <v>137374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="N25" s="7">
-        <v>76051</v>
+        <v>137374</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8505,34 +7428,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="I26" s="7">
-        <v>64271</v>
+        <v>98117</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="N26" s="7">
-        <v>64271</v>
+        <v>98117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8554,10 +7477,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>674</v>
+        <v>1014</v>
       </c>
       <c r="I27" s="7">
-        <v>483701</v>
+        <v>711084</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -8569,10 +7492,10 @@
         <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>674</v>
+        <v>1014</v>
       </c>
       <c r="N27" s="7">
-        <v>483701</v>
+        <v>711084</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -8586,7 +7509,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8605,34 +7528,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="I28" s="7">
-        <v>40365</v>
+        <v>192294</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="M28" s="7">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="N28" s="7">
-        <v>40365</v>
+        <v>192294</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,34 +7577,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>377</v>
+        <v>1231</v>
       </c>
       <c r="I29" s="7">
-        <v>250963</v>
+        <v>774802</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="M29" s="7">
-        <v>377</v>
+        <v>1231</v>
       </c>
       <c r="N29" s="7">
-        <v>250963</v>
+        <v>774802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8703,34 +7626,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>236</v>
+        <v>933</v>
       </c>
       <c r="I30" s="7">
-        <v>173719</v>
+        <v>579463</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="M30" s="7">
-        <v>236</v>
+        <v>933</v>
       </c>
       <c r="N30" s="7">
-        <v>173719</v>
+        <v>579463</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8752,34 +7675,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>203</v>
+        <v>631</v>
       </c>
       <c r="I31" s="7">
-        <v>152733</v>
+        <v>398370</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="M31" s="7">
-        <v>203</v>
+        <v>631</v>
       </c>
       <c r="N31" s="7">
-        <v>152733</v>
+        <v>398370</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8801,34 +7724,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>138</v>
+        <v>389</v>
       </c>
       <c r="I32" s="7">
-        <v>105707</v>
+        <v>264354</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="M32" s="7">
-        <v>138</v>
+        <v>389</v>
       </c>
       <c r="N32" s="7">
-        <v>105707</v>
+        <v>264354</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8850,10 +7773,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="7">
-        <v>1014</v>
+        <v>3504</v>
       </c>
       <c r="I33" s="7">
-        <v>723488</v>
+        <v>2209283</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -8865,10 +7788,10 @@
         <v>31</v>
       </c>
       <c r="M33" s="7">
-        <v>1014</v>
+        <v>3504</v>
       </c>
       <c r="N33" s="7">
-        <v>723488</v>
+        <v>2209283</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -8881,312 +7804,15 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7">
-        <v>320</v>
-      </c>
-      <c r="I34" s="7">
-        <v>212574</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M34" s="7">
-        <v>320</v>
-      </c>
-      <c r="N34" s="7">
-        <v>212574</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1231</v>
-      </c>
-      <c r="I35" s="7">
-        <v>757991</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1231</v>
-      </c>
-      <c r="N35" s="7">
-        <v>757991</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7">
-        <v>933</v>
-      </c>
-      <c r="I36" s="7">
-        <v>633219</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="M36" s="7">
-        <v>933</v>
-      </c>
-      <c r="N36" s="7">
-        <v>633219</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="7">
-        <v>631</v>
-      </c>
-      <c r="I37" s="7">
-        <v>439924</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="7">
-        <v>631</v>
-      </c>
-      <c r="N37" s="7">
-        <v>439924</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="7">
-        <v>389</v>
-      </c>
-      <c r="I38" s="7">
-        <v>283468</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M38" s="7">
-        <v>389</v>
-      </c>
-      <c r="N38" s="7">
-        <v>283468</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3504</v>
-      </c>
-      <c r="I39" s="7">
-        <v>2327176</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3504</v>
-      </c>
-      <c r="N39" s="7">
-        <v>2327176</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>109</v>
+      <c r="A34" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
